--- a/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
+++ b/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\2. objectcatalogus\IMKL2.0io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74B2F82-137B-449B-BCB6-8CDFF1131A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF013C7D-3663-42D5-A09B-88D689510D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="875" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WION" sheetId="27" r:id="rId1"/>
@@ -535,9 +535,6 @@
     <t>Strikte verplichting IMKL: default waarde is bovenkant</t>
   </si>
   <si>
-    <t>Strikte verplichting IMKL. Kan bij meerdere netwerken horen; extra check of UtilityNetwork bestaat en op vorm IMKL identificator.</t>
-  </si>
-  <si>
     <t>rotatieHoekSymbool</t>
   </si>
   <si>
@@ -986,15 +983,6 @@
 </t>
   </si>
   <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: 1..* ingeval gegevens bij een kabelEnLeidingContainer of ContainerLeidingelement horen.</t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn.</t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn.</t>
-  </si>
-  <si>
     <t>organisatie</t>
   </si>
   <si>
@@ -1023,6 +1011,18 @@
   <si>
     <t>Strikte verplichting voor maatvoeringsobjecten van het type maatvoeringslabel of maatvoeringspijlpunt. De unit of measure moet zijn urn:ogc:def:uom:OGC::deg.
 Bij maatvoeringsobjecten met een lijngeometrie (maatvoeringslijn, maatvoeringshulplijn, maatvoeringspijl) wordt de waarde van deze property genegeerd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er mag maximaal naar 1 netwerk worden verwezen. Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. </t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: 1..* ingeval gegevens bij een kabelEnLeidingContainer of ContainerLeidingelement horen. CONTROLEER!!!</t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!!</t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,6 +1182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1641,7 +1647,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1898,6 +1904,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="447">
@@ -3084,8 +3108,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3145,7 +3169,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3185,27 +3209,27 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>155</v>
+      <c r="F6" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3225,7 +3249,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3245,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3285,7 +3309,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3325,7 +3349,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3365,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3425,7 +3449,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3469,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -3465,7 +3489,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3485,7 +3509,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3505,7 +3529,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3525,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3569,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3565,7 +3589,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3585,7 +3609,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3605,7 +3629,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3660,8 +3684,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3721,7 +3745,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3764,24 +3788,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:6" s="105" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>155</v>
+      <c r="F6" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3801,7 +3825,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,7 +3845,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3861,7 +3885,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3925,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3921,7 +3945,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3941,7 +3965,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3981,7 +4005,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4021,7 +4045,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4041,7 +4065,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4061,7 +4085,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4081,7 +4105,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4101,7 +4125,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4121,7 +4145,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,7 +4165,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4161,7 +4185,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4181,7 +4205,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4201,7 +4225,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4229,7 +4253,7 @@
         <v>134</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>122</v>
@@ -4279,7 +4303,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4339,7 +4363,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4379,7 +4403,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -4479,7 +4503,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4519,7 +4543,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4559,7 +4583,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4579,7 +4603,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4639,7 +4663,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4659,7 +4683,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4728,7 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -4724,10 +4748,10 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>122</v>
@@ -4802,7 +4826,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>82</v>
       </c>
@@ -4819,7 +4843,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4847,8 +4871,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4863,7 +4887,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4908,7 +4932,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4948,7 +4972,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4988,7 +5012,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5032,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5088,7 +5112,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5108,7 +5132,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5128,12 +5152,12 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -5213,7 +5237,7 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -5231,24 +5255,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="55" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:6" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="55" t="s">
-        <v>155</v>
+      <c r="F20" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5324,8 +5348,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5340,7 +5364,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5385,7 +5409,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5425,7 +5449,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5465,7 +5489,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5485,7 +5509,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5589,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5585,7 +5609,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5605,7 +5629,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5625,7 +5649,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5670,7 +5694,7 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -5688,24 +5712,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:6" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>155</v>
+      <c r="F19" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -5794,8 +5818,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5810,7 +5834,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5855,7 +5879,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5895,7 +5919,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5935,7 +5959,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5955,7 +5979,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6035,7 +6059,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6079,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6075,7 +6099,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6095,7 +6119,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6135,12 +6159,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -6174,8 +6198,8 @@
       <c r="E19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>155</v>
+      <c r="F19" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6264,8 +6288,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6280,7 +6304,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6325,7 +6349,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6365,7 +6389,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6405,7 +6429,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6425,7 +6449,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6505,7 +6529,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6525,7 +6549,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6545,7 +6569,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6585,12 +6609,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -6624,8 +6648,8 @@
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>155</v>
+      <c r="F18" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -6714,8 +6738,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6730,7 +6754,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6775,7 +6799,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6815,7 +6839,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6855,7 +6879,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6875,7 +6899,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6955,7 +6979,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6975,7 +6999,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6995,7 +7019,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7035,12 +7059,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -7058,7 +7082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -7074,8 +7098,8 @@
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>155</v>
+      <c r="F18" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7169,8 +7193,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7185,7 +7209,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7230,7 +7254,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7270,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7310,7 +7334,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7330,7 +7354,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7410,7 +7434,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7430,7 +7454,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7450,7 +7474,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7490,12 +7514,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -7513,7 +7537,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -7529,8 +7553,8 @@
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>155</v>
+      <c r="F18" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7613,7 +7637,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7628,7 +7652,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7693,7 +7717,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7713,7 +7737,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7733,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7753,7 +7777,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="71" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,8 +7796,8 @@
       <c r="E8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>288</v>
+      <c r="F8" s="109" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7793,7 +7817,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7833,7 +7857,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="95" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,7 +7877,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7893,7 +7917,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7929,7 +7953,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -7945,7 +7969,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7990,7 +8014,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8030,7 +8054,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8070,7 +8094,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8090,7 +8114,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8130,7 +8154,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8170,7 +8194,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8190,7 +8214,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8290,7 +8314,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8310,7 +8334,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8370,7 +8394,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -8390,7 +8414,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="25" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8410,7 +8434,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,7 +8496,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8537,7 +8561,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8557,7 +8581,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8577,7 +8601,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -8597,7 +8621,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -8622,10 +8646,10 @@
     </row>
     <row r="9" spans="1:6" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>122</v>
@@ -8637,12 +8661,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>83</v>
@@ -8662,7 +8686,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>83</v>
@@ -8677,12 +8701,12 @@
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>83</v>
@@ -8697,12 +8721,12 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>83</v>
@@ -8717,15 +8741,15 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>122</v>
@@ -8765,7 +8789,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8830,7 +8854,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8850,7 +8874,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8870,7 +8894,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8890,12 +8914,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>83</v>
@@ -8970,7 +8994,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -9008,7 +9032,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9073,7 +9097,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9093,7 +9117,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9113,7 +9137,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9133,15 +9157,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>122</v>
@@ -9161,7 +9185,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>122</v>
@@ -9181,7 +9205,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>122</v>
@@ -9201,7 +9225,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>122</v>
@@ -9238,7 +9262,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>83</v>
@@ -9273,7 +9297,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -9289,8 +9313,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9306,7 +9330,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -9371,7 +9395,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9391,7 +9415,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="60" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9411,7 +9435,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9431,10 +9455,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>34</v>
       </c>
@@ -9450,13 +9474,13 @@
       <c r="E8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>148</v>
+      <c r="F8" s="110" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>83</v>
@@ -9491,12 +9515,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="100" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="97" t="s">
         <v>83</v>
@@ -9511,7 +9535,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9550,7 +9574,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9631,7 +9655,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9651,7 +9675,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9671,7 +9695,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9691,10 +9715,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>34</v>
       </c>
@@ -9710,8 +9734,8 @@
       <c r="E8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>148</v>
+      <c r="F8" s="110" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -9751,12 +9775,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="100" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="97" t="s">
         <v>83</v>
@@ -9771,7 +9795,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9835,7 +9859,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9880,7 +9904,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9900,7 +9924,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9940,7 +9964,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9960,12 +9984,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>83</v>
@@ -10020,7 +10044,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10058,8 +10082,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10119,7 +10143,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -10141,7 +10165,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -10185,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -10207,7 +10231,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -10251,7 +10275,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10271,7 +10295,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -10298,7 +10322,7 @@
     </row>
     <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="92" t="s">
         <v>16</v>
@@ -10313,7 +10337,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
@@ -10335,7 +10359,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
@@ -10356,8 +10380,8 @@
       <c r="E14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>289</v>
+      <c r="F14" s="109" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10377,7 +10401,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="26" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -10397,7 +10421,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -10432,8 +10456,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10493,7 +10517,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10513,7 +10537,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10553,7 +10577,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10573,7 +10597,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="21" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10613,7 +10637,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10633,7 +10657,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10658,7 +10682,7 @@
     </row>
     <row r="12" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>16</v>
@@ -10673,7 +10697,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10693,10 +10717,10 @@
         <v>29</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="71" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
         <v>34</v>
       </c>
@@ -10712,8 +10736,8 @@
       <c r="E14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>290</v>
+      <c r="F14" s="109" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10806,7 +10830,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10826,7 +10850,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -10866,7 +10890,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10886,7 +10910,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="103" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10906,7 +10930,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="71" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10966,7 +10990,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10986,7 +11010,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -11006,7 +11030,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -11026,7 +11050,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -11066,7 +11090,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -11086,7 +11110,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -11177,7 +11201,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="71" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11217,7 +11241,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="71" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11237,7 +11261,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="71" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11277,7 +11301,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="89" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11297,7 +11321,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="89" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11317,7 +11341,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11337,7 +11361,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11357,7 +11381,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11377,7 +11401,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11397,7 +11421,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11417,7 +11441,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
@@ -11437,7 +11461,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -11466,7 +11490,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -11482,7 +11506,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11527,7 +11551,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11607,7 +11631,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11627,7 +11651,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11707,7 +11731,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11727,7 +11751,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -11927,7 +11951,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12005,7 +12029,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -12258,7 +12282,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12323,7 +12347,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,12 +12367,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12363,12 +12387,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12383,12 +12407,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12403,12 +12427,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>83</v>
@@ -12417,18 +12441,18 @@
         <v>122</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12443,12 +12467,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12457,13 +12481,13 @@
         <v>122</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -12489,7 +12513,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12554,7 +12578,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12574,12 +12598,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12594,12 +12618,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12614,12 +12638,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12634,12 +12658,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>83</v>
@@ -12654,12 +12678,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12674,12 +12698,12 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12694,12 +12718,12 @@
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>83</v>
@@ -12714,12 +12738,12 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>83</v>
@@ -12734,12 +12758,12 @@
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>83</v>
@@ -12754,12 +12778,12 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>83</v>
@@ -12774,12 +12798,12 @@
         <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>83</v>
@@ -12794,12 +12818,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>83</v>
@@ -12814,12 +12838,12 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>83</v>
@@ -12834,12 +12858,12 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>83</v>
@@ -12854,12 +12878,12 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>83</v>
@@ -12874,12 +12898,12 @@
         <v>35</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>83</v>
@@ -12894,12 +12918,12 @@
         <v>35</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>83</v>
@@ -12914,7 +12938,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -12944,7 +12968,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F1" s="62"/>
     </row>
@@ -13005,7 +13029,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -13025,12 +13049,12 @@
         <v>29</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>83</v>
@@ -13045,12 +13069,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>83</v>
@@ -13065,12 +13089,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="65" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>83</v>
@@ -13085,12 +13109,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="65" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>83</v>
@@ -13105,12 +13129,12 @@
         <v>35</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="65" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>83</v>
@@ -13125,12 +13149,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>83</v>
@@ -13145,12 +13169,12 @@
         <v>35</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>83</v>
@@ -13165,12 +13189,12 @@
         <v>35</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="16" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>83</v>
@@ -13185,12 +13209,12 @@
         <v>35</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>83</v>
@@ -13205,12 +13229,12 @@
         <v>35</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>83</v>
@@ -13225,7 +13249,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -13253,7 +13277,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -13318,7 +13342,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -13338,7 +13362,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -13346,7 +13370,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>122</v>
@@ -13358,15 +13382,15 @@
         <v>29</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>122</v>
@@ -13378,15 +13402,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>122</v>
@@ -13398,15 +13422,15 @@
         <v>29</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>122</v>
@@ -13418,15 +13442,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>122</v>
@@ -13438,15 +13462,15 @@
         <v>29</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>122</v>
@@ -13458,32 +13482,32 @@
         <v>29</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>245</v>
-      </c>
       <c r="E12" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>83</v>
@@ -13492,18 +13516,18 @@
         <v>122</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>83</v>
@@ -13518,12 +13542,12 @@
         <v>29</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>83</v>
@@ -13538,7 +13562,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -13558,12 +13582,12 @@
         <v>29</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>83</v>
@@ -13578,7 +13602,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -13609,10 +13633,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="6"/>
@@ -13676,7 +13700,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13696,7 +13720,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -13704,7 +13728,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>122</v>
@@ -13716,15 +13740,15 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>122</v>
@@ -13736,15 +13760,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>122</v>
@@ -13756,15 +13780,15 @@
         <v>29</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>122</v>
@@ -13776,15 +13800,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>122</v>
@@ -13796,15 +13820,15 @@
         <v>29</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>122</v>
@@ -13816,32 +13840,32 @@
         <v>29</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>245</v>
-      </c>
       <c r="E12" s="47" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>83</v>
@@ -13856,7 +13880,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -13883,7 +13907,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13948,7 +13972,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13968,13 +13992,13 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>83</v>
@@ -13989,13 +14013,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>83</v>
@@ -14010,13 +14034,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>83</v>
@@ -14031,7 +14055,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -14066,7 +14090,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="6"/>
@@ -14111,7 +14135,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14191,7 +14215,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14211,7 +14235,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14291,7 +14315,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14311,7 +14335,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14331,7 +14355,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14371,7 +14395,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14579,7 +14603,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -14651,7 +14675,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14696,7 +14720,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14776,7 +14800,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14796,7 +14820,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14876,7 +14900,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -14896,7 +14920,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14956,7 +14980,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15164,7 +15188,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -15241,7 +15265,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15286,7 +15310,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15366,7 +15390,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15386,7 +15410,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15466,7 +15490,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15486,7 +15510,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15546,7 +15570,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15754,7 +15778,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -15831,7 +15855,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15876,7 +15900,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15916,7 +15940,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -15956,7 +15980,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15976,7 +16000,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16016,7 +16040,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16056,7 +16080,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16076,7 +16100,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16096,7 +16120,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16136,7 +16160,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16236,7 +16260,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16256,7 +16280,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16276,7 +16300,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16296,7 +16320,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16316,7 +16340,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16344,7 +16368,7 @@
         <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>122</v>
@@ -16420,7 +16444,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16465,7 +16489,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16505,7 +16529,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -16545,7 +16569,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16565,7 +16589,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16605,7 +16629,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16645,7 +16669,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16665,7 +16689,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16685,7 +16709,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16725,7 +16749,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16745,7 +16769,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16765,7 +16789,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16785,7 +16809,7 @@
         <v>29</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16805,7 +16829,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16833,7 +16857,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>122</v>
@@ -16845,7 +16869,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16853,7 +16877,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>122</v>
@@ -16870,16 +16894,16 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16887,7 +16911,7 @@
         <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>122</v>
@@ -16919,7 +16943,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16956,8 +16980,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17017,7 +17041,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17057,27 +17081,27 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="105" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>155</v>
+      <c r="F6" s="107" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -17097,7 +17121,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17117,7 +17141,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17157,7 +17181,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17197,7 +17221,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17217,7 +17241,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -17237,7 +17261,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17277,7 +17301,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -17297,7 +17321,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -17317,7 +17341,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -17337,7 +17361,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17357,7 +17381,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17377,7 +17401,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17397,7 +17421,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17417,7 +17441,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17437,7 +17461,7 @@
         <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17457,7 +17481,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17477,7 +17501,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
+++ b/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF013C7D-3663-42D5-A09B-88D689510D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB8077-A8A3-43D4-A1DC-5F4A5AC71F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WION" sheetId="27" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="306">
   <si>
     <t>Annotatie</t>
   </si>
@@ -679,15 +679,9 @@
     <t>aanvraagSoort</t>
   </si>
   <si>
-    <t>Strikte verplichting in IMKL voor een maatvoeringsobject van het type maatvoeringsLabel.</t>
-  </si>
-  <si>
     <t>labelpositie</t>
   </si>
   <si>
-    <t>Strikte verplichting in IMKL voor een annotatieobject van het type annotatielabel.</t>
-  </si>
-  <si>
     <t>TechnischGebouw</t>
   </si>
   <si>
@@ -710,9 +704,6 @@
   </si>
   <si>
     <t>Rioolleiding</t>
-  </si>
-  <si>
-    <t>Strikte verplichting voor annotatieobjecten van het type annotatieLabel of pijlpunt. De unit of measure moet zijn urn:ogc:def:uom:ogc::deg</t>
   </si>
   <si>
     <t>Strikte verplichting IMKL; Extra check: Alleen link naar een UtilityLink is toegestaan. UtilityLinkSequence komt niet voor.</t>
@@ -794,15 +785,6 @@
     <t>netbeheerder</t>
   </si>
   <si>
-    <t>geraaktBelangGraafpolygoon</t>
-  </si>
-  <si>
-    <t>geraaktBelangInformatiepolygoon</t>
-  </si>
-  <si>
-    <t>geraaktBelangOrientatiepolygoon</t>
-  </si>
-  <si>
     <t>eigenTopografie</t>
   </si>
   <si>
@@ -835,9 +817,6 @@
   </si>
   <si>
     <t>contactNetInformatie</t>
-  </si>
-  <si>
-    <t>contactStoring</t>
   </si>
   <si>
     <t>contactBeschadiging</t>
@@ -963,73 +942,206 @@
     </r>
   </si>
   <si>
-    <t>decentrale aanlevering:  geen extra regels
+    <t>decentrale aanlevering: geen extra regels
+uitlevering: afwezig indien beheerdersinformatieGeleverd=nee
+NietBetrokken: eigenTopografie afwezig</t>
+  </si>
+  <si>
+    <t>WelBetrokken: netinformatie verplicht
+NietBetrokken: netinformatie afwezig
+uitlevering: afwezig indien beheerdersinformatieGeleverd=nee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bij uitlevering niet gebruikt
+</t>
+  </si>
+  <si>
+    <t>organisatie</t>
+  </si>
+  <si>
+    <t>belanghebbende</t>
+  </si>
+  <si>
+    <t>utiliteitsnet</t>
+  </si>
+  <si>
+    <t>ExtraDetailinfo</t>
+  </si>
+  <si>
+    <t>Bij uitlevering verplicht; bij aanlevering beheerdersinformatie verplicht; niet toegestaan bij aanlevering netinformatie</t>
+  </si>
+  <si>
+    <t>nilReason is niet toegestaan.</t>
+  </si>
+  <si>
+    <t>Strikte verplichting voor maatvoeringsobjecten van het type maatvoeringslabel of maatvoeringspijlpunt. De unit of measure moet zijn urn:ogc:def:uom:OGC::deg.
+Bij maatvoeringsobjecten met een lijngeometrie (maatvoeringslijn, maatvoeringshulplijn, maatvoeringspijl) wordt de waarde van deze property genegeerd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er mag maximaal naar 1 netwerk worden verwezen. Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. </t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: 1..* ingeval gegevens bij een kabelEnLeidingContainer of ContainerLeidingelement horen. CONTROLEER!!!</t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!!</t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alle situaties: maximaal 1 algemene bijlage.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 uitlevering: afwezig indien beheerdersinformatieGeleverd=nee
 NietBetrokken: eisVoorzorgsmaatregelBijlage afwezig
 EisVoorzorgsmaatregel=ja dan bijlage verplicht en minstens 1 van type EisVoorzorgsmaatregelBijlage</t>
-  </si>
-  <si>
-    <t>decentrale aanlevering: geen extra regels
-uitlevering: afwezig indien beheerdersinformatieGeleverd=nee
-NietBetrokken: eigenTopografie afwezig</t>
-  </si>
-  <si>
-    <t>WelBetrokken: netinformatie verplicht
-NietBetrokken: netinformatie afwezig
-uitlevering: afwezig indien beheerdersinformatieGeleverd=nee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bij uitlevering niet gebruikt
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Als het symbool is afsluiter dan is de rotatiehoekSymbool verplicht.
+Geldt voor:
+OilGasChemicalsAppurtenanceTypeIMKLValue/afsluiter
+SewerAppurtenanceTypeIMKLValue/cleanOut
+ThermalAppurtenanceTypeIMKLValue/afsluiter
+WaterAppurtenanceTypeIMKLValue/afsluiter
+WaterAppurtenanceTypeIMKLValue/checkValve
+WaterAppurtenanceTypeIMKLValue/controlValve
 </t>
   </si>
   <si>
-    <t>organisatie</t>
-  </si>
-  <si>
-    <t>belanghebbende</t>
-  </si>
-  <si>
-    <t>utiliteitsnet</t>
-  </si>
-  <si>
-    <t>Strikte verplichting voor annotatieobjecten van het type annotatieLabel of pijlpunt. Verplichte attributen:
+    <t>Maximaal 40 karakters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strikte verplichting in IMKL voor een maatvoeringsobject van het type maatvoeringsLabel.
+Maximaal 40 karakters </t>
+  </si>
+  <si>
+    <t>Aanvraagsoort=orientatieverzoek: geraaktBelangorientatiepolygoon verplicht</t>
+  </si>
+  <si>
+    <t>decentrale aanlevering: afwezig
+uitlevering: bij graafmelding en calamiteitenmelding veplicht</t>
+  </si>
+  <si>
+    <t>geraaktBelangBijGraafpolygoon</t>
+  </si>
+  <si>
+    <t>geraaktBijBelangBijInformatiepolygoon</t>
+  </si>
+  <si>
+    <t>geraaktBijBelangBijOrientatiepolygoon</t>
+  </si>
+  <si>
+    <t>decentrale aanlevering: afwezig
+uitlevering: bij orientatieverzoek verplicht</t>
+  </si>
+  <si>
+    <t>Bij orientatieverzoek</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Strikte verplichting voor maatvoeringobjecten van het type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">maatvoeringslabel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maatvoeringspijlpunt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Verplichte attributen:
 - aangrijpingHorizontaal
 - aangrijpingVerticaal</t>
-  </si>
-  <si>
-    <t>ExtraDetailinfo</t>
-  </si>
-  <si>
-    <t>Bij uitlevering verplicht; bij aanlevering beheerdersinformatie verplicht; niet toegestaan bij aanlevering netinformatie</t>
-  </si>
-  <si>
-    <t>nilReason is niet toegestaan.</t>
-  </si>
-  <si>
-    <t>? Stond er niet in. Op 2020-04-17 bijgevoegd</t>
-  </si>
-  <si>
-    <t>Strikte verplichting voor maatvoeringsobjecten van het type maatvoeringslabel of maatvoeringspijlpunt. De unit of measure moet zijn urn:ogc:def:uom:OGC::deg.
-Bij maatvoeringsobjecten met een lijngeometrie (maatvoeringslijn, maatvoeringshulplijn, maatvoeringspijl) wordt de waarde van deze property genegeerd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er mag maximaal naar 1 netwerk worden verwezen. Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. </t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: 1..* ingeval gegevens bij een kabelEnLeidingContainer of ContainerLeidingelement horen. CONTROLEER!!!</t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!!</t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!</t>
+    </r>
+  </si>
+  <si>
+    <t>Strikte verplichting voor annotatieobjecten van het type annotatielabel of annotatiepijlpunt. De unit of measure moet zijn urn:ogc:def:uom:ogc::deg
+Bij annotatieobjecten met een lijngeometrie (annotatielijn, annotatiepijlEnkelgericht, annotatiepijlDubbelgericht) wordt de waarde van deze property genegeerd</t>
+  </si>
+  <si>
+    <t>Stond er niet in. Op 2020-04-17 bijgevoegd</t>
+  </si>
+  <si>
+    <t>In Network is 1..*. Dit zou een constraint moeten zijn. Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Strikte verplichting voor annotatieobjecten van het type annotatielabel of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>annotatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pijlpunt. Verplichte attributen:
+- aangrijpingHorizontaal
+- aangrijpingVerticaal</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1126,8 +1238,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,12 +1280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1161,18 +1287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,6 +1302,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1647,7 +1773,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1737,7 +1863,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1749,7 +1874,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1830,12 +1955,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1877,52 +1999,73 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="447">
     <cellStyle name="Gevolgde hyperlink" xfId="356" builtinId="9" hidden="1"/>
@@ -2480,7 +2623,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> 1.2.1.1 </a:t>
+            <a:t> 2.0io </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="nl-NL" sz="1100" baseline="0">
@@ -2491,7 +2634,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2018-12-03 (hoort bij IMKL modeldocument versie 1.2.1</a:t>
+            <a:t>2020-xx-xx (hoort bij IMKL modeldocument versie 2.0io</a:t>
           </a:r>
           <a:endParaRPr lang="nl-NL"/>
         </a:p>
@@ -2505,7 +2648,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>UML1.2.1</a:t>
+            <a:t>UML2.0io</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2528,7 +2671,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Bevat aanpassing op versie 1.2.1. Aanpassingen zijn in tabbladen gehighlight.</a:t>
+            <a:t>De</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aanpassing op versie 1.2.1.1  zijn in tabbladen groen gehighlight.</a:t>
           </a:r>
           <a:endParaRPr lang="nl-NL" sz="1100" b="1">
             <a:solidFill>
@@ -2570,7 +2735,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> wordt gebruikt om het alle INSPIRE -IMKL2015 attributen en relaties te evalueren voor toepassing in het NL-KLICWIN programma.</a:t>
+            <a:t> wordt gebruikt om het alle INSPIRE -IMKL attributen en relaties te evalueren voor toepassing in het NL-KLICWIN programma.</a:t>
           </a:r>
           <a:endParaRPr lang="nl-NL"/>
         </a:p>
@@ -3104,12 +3269,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3212,24 +3377,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:6" s="97" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="107" t="s">
-        <v>296</v>
+      <c r="F6" s="97" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3249,7 +3414,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3268,8 +3433,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3348,7 +3513,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3368,7 +3533,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3412,83 +3577,83 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="50" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:6" s="49" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="53">
-        <v>1</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="49" t="s">
+      <c r="C16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="51" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3508,8 +3673,8 @@
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>160</v>
+      <c r="F20" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3680,12 +3845,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3788,44 +3953,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="105" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="F6" s="97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3844,8 +4009,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3924,7 +4089,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3944,7 +4109,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4084,8 +4249,8 @@
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>160</v>
+      <c r="F20" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4297,13 +4462,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4502,8 +4667,8 @@
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="99" t="s">
-        <v>293</v>
+      <c r="F10" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4582,7 +4747,7 @@
       <c r="E14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4602,7 +4767,7 @@
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4662,8 +4827,8 @@
       <c r="E18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>160</v>
+      <c r="F18" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4746,24 +4911,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:6" s="46" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>142</v>
+      <c r="C23" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="98" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4836,7 +5001,7 @@
       <c r="C27" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="26" t="s">
@@ -4867,12 +5032,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="A20:XFD20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4931,8 +5096,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>293</v>
+      <c r="F3" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5011,7 +5176,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5031,7 +5196,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5095,23 +5260,23 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="52" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:6" s="51" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="51">
-        <v>1</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="56" t="s">
+      <c r="C12" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="55" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5131,8 +5296,8 @@
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>160</v>
+      <c r="F13" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5255,24 +5420,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+    <row r="20" spans="1:6" s="97" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="108" t="s">
+      <c r="C20" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="107" t="s">
+      <c r="E20" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="107" t="s">
-        <v>296</v>
+      <c r="F20" s="97" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5343,13 +5508,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="A19:XFD19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5364,7 +5529,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5408,8 +5573,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>293</v>
+      <c r="F3" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5488,7 +5653,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5508,7 +5673,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5572,23 +5737,23 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="52" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:6" s="51" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="51">
-        <v>1</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="56" t="s">
+      <c r="C12" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="55" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5608,8 +5773,8 @@
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>160</v>
+      <c r="F13" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5712,43 +5877,43 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="107" t="s">
+    <row r="19" spans="1:6" s="97" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="108" t="s">
+      <c r="C19" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="F19" s="97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5813,13 +5978,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5834,7 +5999,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5878,8 +6043,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>293</v>
+      <c r="F3" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5958,7 +6123,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5978,7 +6143,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6052,7 +6217,7 @@
       <c r="C12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -6078,8 +6243,8 @@
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>160</v>
+      <c r="F13" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6198,8 +6363,8 @@
       <c r="E19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="107" t="s">
-        <v>296</v>
+      <c r="F19" s="97" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6283,13 +6448,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6304,7 +6469,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6348,8 +6513,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>293</v>
+      <c r="F3" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6428,7 +6593,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6448,7 +6613,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6528,8 +6693,8 @@
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>160</v>
+      <c r="F12" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6648,27 +6813,27 @@
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="F18" s="97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6733,13 +6898,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6754,7 +6919,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6798,8 +6963,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>293</v>
+      <c r="F3" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6878,7 +7043,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6898,7 +7063,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6978,8 +7143,8 @@
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>160</v>
+      <c r="F12" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7082,7 +7247,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -7098,8 +7263,8 @@
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="107" t="s">
-        <v>296</v>
+      <c r="F18" s="97" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7189,12 +7354,12 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7209,7 +7374,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7253,8 +7418,8 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="99" t="s">
-        <v>293</v>
+      <c r="F3" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7333,7 +7498,7 @@
       <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7353,7 +7518,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7433,8 +7598,8 @@
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>160</v>
+      <c r="F12" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7537,7 +7702,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
@@ -7553,8 +7718,8 @@
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="107" t="s">
-        <v>296</v>
+      <c r="F18" s="97" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7631,13 +7796,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="7" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7651,8 +7816,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>291</v>
+      <c r="A1" s="114" t="s">
+        <v>282</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7780,43 +7945,43 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="71" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:6" s="70" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="65" t="s">
+      <c r="C8" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="109" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="F8" s="99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="57" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7856,8 +8021,8 @@
       <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="95" t="s">
-        <v>292</v>
+      <c r="F11" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7876,8 +8041,8 @@
       <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="95" t="s">
-        <v>292</v>
+      <c r="F12" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7917,7 +8082,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7948,12 +8113,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -8094,7 +8259,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8113,8 +8278,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8193,7 +8358,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8213,7 +8378,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8298,23 +8463,23 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>160</v>
+      <c r="E18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8387,7 +8552,7 @@
       <c r="C22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="26" t="s">
@@ -8407,7 +8572,7 @@
       <c r="C23" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="26" t="s">
@@ -8477,110 +8642,113 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="82.125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="8"/>
+    <col min="1" max="1" width="26.875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="33" style="58" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="58" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="82.125" style="58" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="110" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8594,57 +8762,57 @@
       <c r="C6" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="111">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="112" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>177</v>
       </c>
@@ -8661,12 +8829,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="59" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>83</v>
@@ -8685,66 +8853,66 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="47">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>178</v>
       </c>
@@ -8771,10 +8939,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8947,14 +9118,14 @@
       <c r="C9" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="31">
-        <v>1</v>
+      <c r="D9" s="115" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>150</v>
+      <c r="F9" s="101" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8967,14 +9138,14 @@
       <c r="C10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="31">
-        <v>1</v>
+      <c r="D10" s="115" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>92</v>
+      <c r="F10" s="100" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9014,10 +9185,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9136,8 +9310,8 @@
       <c r="E6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>160</v>
+      <c r="F6" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9309,12 +9483,12 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9418,24 +9592,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="60" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:6" s="59" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>198</v>
+      <c r="C6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9458,24 +9632,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:6" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="96" t="s">
+      <c r="C8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="110" t="s">
-        <v>296</v>
+      <c r="F8" s="100" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -9514,28 +9688,28 @@
       <c r="E10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="104" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="100" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="97" t="s">
+      <c r="F10" s="103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="94" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>290</v>
+      <c r="C11" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9558,7 +9732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9568,13 +9742,13 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9678,24 +9852,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:6" s="59" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>200</v>
+      <c r="C6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9718,24 +9892,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="46" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:6" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="96" t="s">
+      <c r="C8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="110" t="s">
-        <v>296</v>
+      <c r="F8" s="100" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -9758,44 +9932,44 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="60" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:6" s="59" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="100" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="97" t="s">
+      <c r="C10" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="94" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>290</v>
+      <c r="C11" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9839,12 +10013,13 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9903,8 +10078,8 @@
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>160</v>
+      <c r="F3" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10027,24 +10202,24 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="71" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:6" s="70" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="65">
-        <v>1</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>275</v>
+      <c r="C10" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="64">
+        <v>1</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10078,12 +10253,13 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10142,8 +10318,8 @@
       <c r="E3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>160</v>
+      <c r="F3" s="102" t="s">
+        <v>292</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -10186,7 +10362,7 @@
       <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="16"/>
@@ -10252,30 +10428,30 @@
       <c r="E8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>98</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="71" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:8" s="70" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="65">
-        <v>1</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>211</v>
+      <c r="C9" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10294,7 +10470,7 @@
       <c r="E10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="87" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10305,7 +10481,7 @@
       <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="31">
@@ -10314,93 +10490,93 @@
       <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-    </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="12" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="89" t="s">
+      <c r="E12" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-    </row>
-    <row r="13" spans="1:8" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="1:8" s="38" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="89" t="s">
+      <c r="C13" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-    </row>
-    <row r="14" spans="1:8" s="71" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+    </row>
+    <row r="14" spans="1:8" s="70" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="65" t="s">
+      <c r="C14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="109" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="49" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="F14" s="99" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="48" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="50" t="s">
+      <c r="C15" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10420,7 +10596,7 @@
       <c r="E16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10452,12 +10628,13 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10516,8 +10693,8 @@
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>160</v>
+      <c r="F3" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10636,8 +10813,8 @@
       <c r="E9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="55" t="s">
-        <v>211</v>
+      <c r="F9" s="54" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10656,7 +10833,7 @@
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>160</v>
       </c>
     </row>
@@ -10680,64 +10857,64 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:6" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="C13" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="71" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:6" s="70" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="65" t="s">
+      <c r="C14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="109" t="s">
-        <v>299</v>
+      <c r="F14" s="99" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10768,13 +10945,13 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10784,32 +10961,32 @@
     <col min="3" max="3" width="13.375" style="34" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="19.625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="98.75" style="62" customWidth="1"/>
+    <col min="6" max="6" width="98.75" style="61" customWidth="1"/>
     <col min="7" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="78" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10849,7 +11026,7 @@
       <c r="E4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10869,48 +11046,48 @@
       <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:6" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:6" s="70" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="103" t="s">
-        <v>294</v>
+      <c r="E7" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -10933,23 +11110,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="71" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:6" s="70" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="71" t="s">
+      <c r="C9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>152</v>
       </c>
     </row>
@@ -10969,7 +11146,7 @@
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10977,10 +11154,10 @@
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="31">
@@ -11073,51 +11250,51 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="49" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:6" s="48" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="C16" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="81" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="82" t="s">
+      <c r="C17" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="84" t="s">
-        <v>267</v>
+      <c r="F17" s="82" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="33"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="85"/>
+      <c r="C25" s="83"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -11150,37 +11327,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="87" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="87" customWidth="1"/>
-    <col min="6" max="6" width="81.75" style="87" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="87"/>
+    <col min="1" max="1" width="33.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="85" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="85" customWidth="1"/>
+    <col min="6" max="6" width="81.75" style="85" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="86" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11204,263 +11381,263 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="71" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:6" s="70" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+    <row r="5" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="89" t="s">
+      <c r="D5" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="71" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:6" s="70" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="65">
-        <v>1</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="D6" s="64">
+        <v>1</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="71" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:6" s="70" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="71">
-        <v>1</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="71" t="s">
+      <c r="D7" s="70">
+        <v>1</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="70" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="71">
-        <v>1</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="71" t="s">
+      <c r="D8" s="70">
+        <v>1</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="70" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="89" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:6" s="87" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="89" t="s">
+      <c r="D9" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="89" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+    <row r="10" spans="1:6" s="87" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="89" t="s">
+      <c r="D10" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:6" s="70" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="65">
-        <v>1</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="71" t="s">
+      <c r="C11" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="64">
+        <v>1</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="65">
-        <v>1</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="71" t="s">
+      <c r="C12" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="64">
+        <v>1</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="71" t="s">
+      <c r="C13" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="70" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="65">
-        <v>1</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="71" t="s">
+      <c r="C14" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="64">
+        <v>1</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="71" t="s">
+      <c r="C15" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="70" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="71" t="s">
+      <c r="C16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="70" t="s">
         <v>184</v>
       </c>
     </row>
@@ -11485,13 +11662,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11631,7 +11808,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11650,8 +11827,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11730,7 +11907,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -11750,7 +11927,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -11830,8 +12007,8 @@
       <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>142</v>
+      <c r="F17" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11904,7 +12081,7 @@
       <c r="C21" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="26" t="s">
@@ -12025,10 +12202,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="6"/>
@@ -12057,191 +12234,191 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="41">
-        <v>1</v>
-      </c>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="40">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="40">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="41">
-        <v>1</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="40" t="s">
+      <c r="C12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="1"/>
@@ -12266,10 +12443,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12282,7 +12462,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12372,7 +12552,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12392,7 +12572,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12412,7 +12592,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12432,7 +12612,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>83</v>
@@ -12441,18 +12621,18 @@
         <v>122</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12466,13 +12646,13 @@
       <c r="E10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>160</v>
+      <c r="F10" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12513,7 +12693,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12603,7 +12783,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12623,7 +12803,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12643,7 +12823,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12663,7 +12843,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>83</v>
@@ -12683,7 +12863,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12703,7 +12883,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12743,7 +12923,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>83</v>
@@ -12763,7 +12943,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>83</v>
@@ -12783,7 +12963,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>83</v>
@@ -12803,7 +12983,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>83</v>
@@ -12823,7 +13003,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>83</v>
@@ -12843,7 +13023,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>83</v>
@@ -12863,7 +13043,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>83</v>
@@ -12882,63 +13062,63 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="65" t="s">
+      <c r="C20" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="65" t="s">
+      <c r="C21" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>227</v>
+      <c r="F21" s="56" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="65" t="s">
+      <c r="C22" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -12949,10 +13129,13 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12967,299 +13150,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="62"/>
+      <c r="A1" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="78" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:6" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="65">
-        <v>1</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="64">
+        <v>1</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="65">
-        <v>1</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="65" t="s">
+      <c r="C4" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="C5" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="64" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="64" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="C9" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="64">
+        <v>1</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="64" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B14" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="65" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="65" t="s">
+      <c r="C14" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="65" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="65">
-        <v>1</v>
-      </c>
-      <c r="E9" s="65" t="s">
+      <c r="C15" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="65" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>285</v>
+      <c r="F15" s="56" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -13276,337 +13463,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="A1" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="69" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="65">
-        <v>1</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="64">
+        <v>1</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="65">
-        <v>1</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="65" t="s">
+      <c r="C4" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="64">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="C5" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="51">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="B6" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="E12" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="E14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="65" t="s">
+      <c r="E16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="51"/>
+      <c r="F16" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13619,7 +13786,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13633,12 +13800,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="72"/>
+        <v>212</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="71"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="13"/>
@@ -13724,19 +13891,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="51">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -13744,142 +13911,142 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="E12" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="51">
-        <v>1</v>
-      </c>
-      <c r="E13" s="51" t="s">
+      <c r="C13" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="46" t="s">
         <v>160</v>
       </c>
     </row>
@@ -13907,7 +14074,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -13996,30 +14163,30 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="75"/>
+      <c r="E6" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="74"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>83</v>
@@ -14040,7 +14207,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>83</v>
@@ -14069,13 +14236,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14092,7 +14259,7 @@
       <c r="A1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -14215,7 +14382,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14234,8 +14401,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14314,7 +14481,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -14334,7 +14501,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -14494,8 +14661,8 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>142</v>
+      <c r="F21" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14659,13 +14826,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14675,7 +14842,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14800,7 +14967,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14819,8 +14986,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14899,7 +15066,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -14919,7 +15086,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -15079,8 +15246,8 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>142</v>
+      <c r="F21" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15244,13 +15411,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15265,7 +15432,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15390,7 +15557,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15409,8 +15576,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15489,7 +15656,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -15509,7 +15676,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -15669,8 +15836,8 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>142</v>
+      <c r="F21" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15834,13 +16001,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15855,7 +16022,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -15980,7 +16147,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15999,8 +16166,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16079,7 +16246,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -16099,7 +16266,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -16259,8 +16426,8 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>160</v>
+      <c r="F21" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16424,12 +16591,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16444,7 +16611,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16569,7 +16736,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16588,8 +16755,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="113" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16668,7 +16835,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -16688,7 +16855,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -16748,8 +16915,8 @@
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>160</v>
+      <c r="F16" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16852,23 +17019,23 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="49" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:6" s="48" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="81" t="s">
+      <c r="B22" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="50" t="s">
+      <c r="E22" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -16877,7 +17044,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>122</v>
@@ -16894,16 +17061,16 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16975,13 +17142,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17084,24 +17251,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="105" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="107" t="s">
-        <v>296</v>
+      <c r="F6" s="97" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -17121,7 +17288,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17140,8 +17307,8 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="99" t="s">
-        <v>293</v>
+      <c r="F8" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17220,7 +17387,7 @@
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -17240,7 +17407,7 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="45" t="s">
         <v>188</v>
       </c>
     </row>
@@ -17297,10 +17464,10 @@
       <c r="D16" s="28">
         <v>1</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="50" t="s">
+      <c r="E16" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="49" t="s">
         <v>190</v>
       </c>
     </row>
@@ -17380,8 +17547,8 @@
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>160</v>
+      <c r="F20" s="102" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
+++ b/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB8077-A8A3-43D4-A1DC-5F4A5AC71F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB3E3D-032E-4667-9AED-211E301DCAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" firstSheet="30" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WION" sheetId="27" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="303">
   <si>
     <t>Annotatie</t>
   </si>
@@ -753,9 +753,6 @@
   </si>
   <si>
     <t>orientatiepolygoon</t>
-  </si>
-  <si>
-    <t>kaart BGT bestaand is verplicht</t>
   </si>
   <si>
     <t>verplicht bij: graafmelding, calamiteitenmelding.
@@ -979,15 +976,6 @@
   </si>
   <si>
     <t xml:space="preserve">Er mag maximaal naar 1 netwerk worden verwezen. Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. </t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: 1..* ingeval gegevens bij een kabelEnLeidingContainer of ContainerLeidingelement horen. CONTROLEER!!!</t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!!</t>
-  </si>
-  <si>
-    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn. CONTROLEER!!!</t>
   </si>
   <si>
     <r>
@@ -1108,9 +1096,6 @@
     <t>Stond er niet in. Op 2020-04-17 bijgevoegd</t>
   </si>
   <si>
-    <t>In Network is 1..*. Dit zou een constraint moeten zijn. Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Strikte verplichting voor annotatieobjecten van het type annotatielabel of </t>
     </r>
@@ -1135,6 +1120,12 @@
 - aangrijpingHorizontaal
 - aangrijpingVerticaal</t>
     </r>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Informatietechnisch geldt 1..* maar in de operationele datauitwisseling is de cardinaliteit beperkt tot 1.</t>
+  </si>
+  <si>
+    <t>kaart BGTraster is verplicht</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3385,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3434,7 +3425,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3674,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3970,7 +3961,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4010,7 +4001,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4250,7 +4241,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4659,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -4828,7 +4819,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4928,7 +4919,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5097,7 +5088,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5297,7 +5288,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5437,7 +5428,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5574,7 +5565,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5774,7 +5765,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5894,7 +5885,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6044,7 +6035,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6244,7 +6235,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6355,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6514,7 +6505,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6694,7 +6685,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6814,7 +6805,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6964,7 +6955,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7144,7 +7135,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7264,7 +7255,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7419,7 +7410,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7599,7 +7590,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7719,7 +7710,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7801,8 +7792,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7817,7 +7808,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7962,7 +7953,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8022,7 +8013,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8042,7 +8033,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8082,7 +8073,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8279,7 +8270,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8479,7 +8470,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8648,7 +8639,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8769,7 +8760,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8783,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
@@ -8802,14 +8793,14 @@
       <c r="C8" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="111">
-        <v>1</v>
+      <c r="D8" s="111" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8829,12 +8820,12 @@
         <v>29</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>83</v>
@@ -9125,7 +9116,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9145,7 +9136,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9311,7 +9302,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9609,7 +9600,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="103" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9649,7 +9640,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -9689,7 +9680,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="94" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9709,7 +9700,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9869,7 +9860,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="103" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9909,7 +9900,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -9949,7 +9940,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="94" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9969,7 +9960,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10079,7 +10070,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10219,7 +10210,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10259,7 +10250,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10310,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -10557,7 +10548,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="48" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10634,7 +10625,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10694,7 +10685,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10897,7 +10888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="70" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>34</v>
       </c>
@@ -10914,7 +10905,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11087,7 +11078,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -11287,7 +11278,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -11667,7 +11658,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -11828,7 +11819,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -12008,7 +11999,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -12448,8 +12439,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12462,7 +12453,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12627,7 +12618,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -12647,12 +12638,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12693,7 +12684,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12783,7 +12774,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>83</v>
@@ -12803,7 +12794,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>83</v>
@@ -12823,7 +12814,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>83</v>
@@ -12843,7 +12834,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>83</v>
@@ -12863,7 +12854,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>83</v>
@@ -12883,7 +12874,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>83</v>
@@ -12923,7 +12914,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>83</v>
@@ -12943,7 +12934,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>83</v>
@@ -12963,7 +12954,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>83</v>
@@ -12983,7 +12974,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>83</v>
@@ -13003,7 +12994,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>83</v>
@@ -13023,7 +13014,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>83</v>
@@ -13043,7 +13034,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>83</v>
@@ -13078,7 +13069,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -13098,7 +13089,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -13118,7 +13109,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -13237,7 +13228,7 @@
     </row>
     <row r="6" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>83</v>
@@ -13252,12 +13243,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="64" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>83</v>
@@ -13272,7 +13263,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="64" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13292,12 +13283,12 @@
         <v>29</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="64" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>83</v>
@@ -13312,12 +13303,12 @@
         <v>35</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="64" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B10" s="64" t="s">
         <v>83</v>
@@ -13332,12 +13323,12 @@
         <v>35</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>83</v>
@@ -13352,12 +13343,12 @@
         <v>35</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>83</v>
@@ -13372,7 +13363,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="16" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -13392,12 +13383,12 @@
         <v>35</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>83</v>
@@ -13412,12 +13403,12 @@
         <v>35</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>83</v>
@@ -13432,7 +13423,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -13448,8 +13439,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13557,7 +13548,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>122</v>
@@ -13574,10 +13565,10 @@
     </row>
     <row r="7" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>122</v>
@@ -13589,15 +13580,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>122</v>
@@ -13609,15 +13600,15 @@
         <v>29</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>122</v>
@@ -13629,15 +13620,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>122</v>
@@ -13649,15 +13640,15 @@
         <v>29</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>122</v>
@@ -13669,21 +13660,21 @@
         <v>29</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>237</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>238</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>29</v>
@@ -13694,7 +13685,7 @@
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>83</v>
@@ -13703,18 +13694,18 @@
         <v>122</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>83</v>
@@ -13754,7 +13745,7 @@
     </row>
     <row r="16" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>83</v>
@@ -13769,7 +13760,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -13803,7 +13794,7 @@
         <v>212</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="6"/>
@@ -13895,7 +13886,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>122</v>
@@ -13912,10 +13903,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>122</v>
@@ -13927,15 +13918,15 @@
         <v>29</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>122</v>
@@ -13947,15 +13938,15 @@
         <v>29</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>122</v>
@@ -13967,15 +13958,15 @@
         <v>29</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>122</v>
@@ -13987,15 +13978,15 @@
         <v>29</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>122</v>
@@ -14007,21 +13998,21 @@
         <v>29</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>237</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>238</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>29</v>
@@ -14032,7 +14023,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>83</v>
@@ -14074,7 +14065,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -14165,7 +14156,7 @@
     </row>
     <row r="6" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>83</v>
@@ -14180,13 +14171,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="74"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>83</v>
@@ -14207,7 +14198,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>83</v>
@@ -14241,7 +14232,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="C13" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -14402,7 +14393,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -14662,7 +14653,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -14987,7 +14978,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15247,7 +15238,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -15416,8 +15407,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F7" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15577,7 +15568,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15837,7 +15828,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16006,7 +15997,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -16167,7 +16158,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16427,7 +16418,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16596,7 +16587,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16611,7 +16602,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -16756,7 +16747,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -16916,7 +16907,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -17024,7 +17015,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>122</v>
@@ -17044,7 +17035,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>122</v>
@@ -17061,16 +17052,16 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17268,7 +17259,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -17308,7 +17299,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -17548,7 +17539,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
+++ b/IMKL2.x/3. extraregels/IMKLv 2.0io_object-attributen-ExtraRegels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A6EC3-E29B-4672-BB7A-A4370EBE3D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4194E26-C74E-4E3F-A782-D69EA0FB4A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" firstSheet="32" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="875" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WIBON" sheetId="27" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="387">
   <si>
     <t>Annotatie</t>
   </si>
@@ -1338,6 +1338,50 @@
   </si>
   <si>
     <t>contactNetInformatie.email</t>
+  </si>
+  <si>
+    <t>adres.BAGid</t>
+  </si>
+  <si>
+    <t>adres.openbareRuimteNaam</t>
+  </si>
+  <si>
+    <t>adres.huisnummer</t>
+  </si>
+  <si>
+    <t>adres.huisletter</t>
+  </si>
+  <si>
+    <t>adres.huisnummertoevoeging</t>
+  </si>
+  <si>
+    <t>adres.woonplaatsnaam</t>
+  </si>
+  <si>
+    <t>adres.postcode</t>
+  </si>
+  <si>
+    <t>adres.landcode</t>
+  </si>
+  <si>
+    <t>aanvraagDatum</t>
+  </si>
+  <si>
+    <t>aanvraagsoort</t>
+  </si>
+  <si>
+    <t>voorbereidingCoordinatieCivieleWerken</t>
+  </si>
+  <si>
+    <t>voorbereidingMedegebruikFysiekeInfrastructuur</t>
+  </si>
+  <si>
+    <t>alleen bij orientatieverzoek
+alleen toegestaan indien niet voorbereidingCoordinatieCivieleWerken</t>
+  </si>
+  <si>
+    <t>alleen bij orientatieverzoek
+alleen toegestaan indien niet voorbereidingMedegebruikFysiekeInfrastructuur</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +2009,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2269,6 +2313,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="448">
@@ -4054,7 +4101,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5241,8 +5288,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5718,7 +5765,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6658,7 +6705,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -8004,10 +8051,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8190,115 +8237,275 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="42">
+        <v>1</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C18" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="C19" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="E19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="C20" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="31">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C21" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+    <row r="22" spans="1:6" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B22" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="63">
-        <v>1</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="93" t="s">
+      <c r="C22" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="63">
+        <v>1</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="93" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="53"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="53"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -8856,7 +9063,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -9154,7 +9361,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12830,10 +13037,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A34:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13476,7 +13683,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>244</v>
+        <v>382</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>83</v>
@@ -13484,8 +13691,8 @@
       <c r="C33" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="33" t="s">
-        <v>56</v>
+      <c r="D33" s="33">
+        <v>1</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>29</v>
@@ -13494,58 +13701,58 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="1:6" s="120" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="B34" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="32" t="s">
+      <c r="C34" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="120" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="33">
-        <v>1</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>157</v>
+      <c r="C35" s="91" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>54</v>
+      <c r="D36" s="33">
+        <v>1</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>29</v>
@@ -13556,16 +13763,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="33">
-        <v>1</v>
+      <c r="D37" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>29</v>
@@ -13576,16 +13783,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D38" s="33">
-        <v>1</v>
+      <c r="D38" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>29</v>
@@ -13596,16 +13803,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>54</v>
+      <c r="D39" s="33">
+        <v>1</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>29</v>
@@ -13616,7 +13823,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>314</v>
@@ -13636,7 +13843,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>314</v>
@@ -13656,7 +13863,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>314</v>
@@ -13664,8 +13871,8 @@
       <c r="C42" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>54</v>
+      <c r="D42" s="33">
+        <v>1</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>29</v>
@@ -13676,7 +13883,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>314</v>
@@ -13695,37 +13902,37 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
-        <v>294</v>
-      </c>
-      <c r="B44" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="112" t="s">
-        <v>295</v>
-      </c>
-      <c r="D44" s="113" t="s">
+      <c r="A44" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="112" t="s">
-        <v>305</v>
+      <c r="E44" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>31</v>
+      <c r="D45" s="33">
+        <v>1</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>29</v>
@@ -13736,16 +13943,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>295</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>29</v>
@@ -13756,56 +13963,56 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="B47" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D48" s="33" t="s">
+      <c r="C48" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>157</v>
+      <c r="E48" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="112" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D49" s="33">
-        <v>1</v>
+      <c r="D49" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="E49" s="32" t="s">
         <v>29</v>
@@ -13816,16 +14023,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D50" s="33">
-        <v>1</v>
+      <c r="D50" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>29</v>
@@ -13836,16 +14043,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>295</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>29</v>
@@ -13856,7 +14063,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>314</v>
@@ -13876,7 +14083,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>314</v>
@@ -13896,7 +14103,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>314</v>
@@ -13904,8 +14111,8 @@
       <c r="C54" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>54</v>
+      <c r="D54" s="33">
+        <v>1</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>29</v>
@@ -13916,7 +14123,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>314</v>
@@ -13936,71 +14143,151 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" s="33">
+        <v>1</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="63" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B61" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D57" s="63" t="s">
+      <c r="C61" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F61" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
+    <row r="62" spans="1:6" s="34" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B62" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" s="63" t="s">
+      <c r="C62" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E62" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F62" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+    <row r="63" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B63" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D59" s="63" t="s">
+      <c r="C63" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E63" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F63" s="24" t="s">
         <v>220</v>
       </c>
     </row>
@@ -14194,7 +14481,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -14329,7 +14616,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -14441,8 +14728,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14755,8 +15042,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15447,7 +15734,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
